--- a/file/download/tianjin.xlsx
+++ b/file/download/tianjin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="23256" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="天津" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>变量名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,22 @@
   </si>
   <si>
     <t>time_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,288 +597,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
       <c r="B26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/file/download/tianjin.xlsx
+++ b/file/download/tianjin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="132" windowWidth="23256" windowHeight="12336"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="23250" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="天津" sheetId="1" r:id="rId1"/>
@@ -14,210 +14,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>变量名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字段名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAU201风机频率</t>
   </si>
   <si>
-    <t>fan_frequency_201</t>
-  </si>
-  <si>
     <t>MAU202风机频率</t>
   </si>
   <si>
-    <t>fan_frequency_202</t>
-  </si>
-  <si>
     <t>MAU203风机频率</t>
   </si>
   <si>
-    <t>fan_frequency_203</t>
-  </si>
-  <si>
     <t>MAU301风机频率</t>
   </si>
   <si>
-    <t>fan_frequency_301</t>
-  </si>
-  <si>
     <t>MAU401风机频率</t>
   </si>
   <si>
-    <t>fan_frequency_401</t>
-  </si>
-  <si>
     <t>MAU201冷水阀开度</t>
   </si>
   <si>
-    <t>cold_water_valve_201</t>
-  </si>
-  <si>
     <t>MAU202冷水阀开度</t>
   </si>
   <si>
-    <t>cold_water_valve_202</t>
-  </si>
-  <si>
     <t>MAU203冷水阀开度</t>
   </si>
   <si>
-    <t>cold_water_valve_203</t>
-  </si>
-  <si>
     <t>MAU301冷水阀开度</t>
   </si>
   <si>
-    <t>cold_water_valve_301</t>
-  </si>
-  <si>
     <t>MAU401冷水阀开度</t>
   </si>
   <si>
-    <t>cold_water_valve_401</t>
-  </si>
-  <si>
     <t>MAU201热水阀开度</t>
   </si>
   <si>
-    <t>hot_water_valve_201</t>
-  </si>
-  <si>
     <t>MAU202热水阀开度</t>
   </si>
   <si>
-    <t>hot_water_valve_202</t>
-  </si>
-  <si>
     <t>MAU203热水阀开度</t>
   </si>
   <si>
-    <t>hot_water_valve_203</t>
-  </si>
-  <si>
     <t>MAU301热水阀开度</t>
   </si>
   <si>
-    <t>hot_water_valve_301</t>
-  </si>
-  <si>
     <t>MAU401热水阀开度</t>
   </si>
   <si>
     <t>MAU201送风压力</t>
   </si>
   <si>
-    <t>air_supply_pressure_201</t>
-  </si>
-  <si>
     <t>MAU202送风压力</t>
   </si>
   <si>
-    <t>air_supply_pressure_202</t>
-  </si>
-  <si>
     <t>MAU203送风压力</t>
   </si>
   <si>
-    <t>air_supply_pressure_203</t>
-  </si>
-  <si>
     <t>MAU301送风压力</t>
   </si>
   <si>
-    <t>air_supply_pressure_301</t>
-  </si>
-  <si>
     <t>MAU401送风压力</t>
   </si>
   <si>
-    <t>air_supply_pressure_401</t>
-  </si>
-  <si>
     <t>MAU201送风湿度</t>
   </si>
   <si>
-    <t>air_supply_humidity_201</t>
-  </si>
-  <si>
     <t>MAU202送风湿度</t>
   </si>
   <si>
-    <t>air_supply_humidity_202</t>
-  </si>
-  <si>
     <t>MAU203送风湿度</t>
   </si>
   <si>
-    <t>air_supply_humidity_203</t>
-  </si>
-  <si>
     <t>MAU301送风湿度</t>
   </si>
   <si>
-    <t>air_supply_humidity_301</t>
-  </si>
-  <si>
     <t>MAU401送风湿度</t>
   </si>
   <si>
-    <t>air_supply_humidity_401</t>
-  </si>
-  <si>
     <t>MAU201送风温度</t>
   </si>
   <si>
-    <t>air_supply_temperature_201</t>
-  </si>
-  <si>
     <t>MAU202送风温度</t>
   </si>
   <si>
-    <t>air_supply_temperature_202</t>
-  </si>
-  <si>
     <t>MAU203送风温度</t>
   </si>
   <si>
-    <t>air_supply_temperature_203</t>
-  </si>
-  <si>
     <t>MAU301送风温度</t>
   </si>
   <si>
-    <t>air_supply_temperature_301</t>
-  </si>
-  <si>
     <t>MAU401送风温度</t>
   </si>
   <si>
-    <t>air_supply_temperature_401</t>
-  </si>
-  <si>
     <t>空气温度</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>空气湿度</t>
   </si>
   <si>
-    <t>humidity</t>
-  </si>
-  <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -597,390 +496,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
       <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
